--- a/data/pca/factorExposure/factorExposure_2012-01-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01549697203318468</v>
+        <v>0.01530843983142568</v>
       </c>
       <c r="C2">
-        <v>0.03112877861774676</v>
+        <v>0.02619218408237247</v>
       </c>
       <c r="D2">
-        <v>0.01692700586321995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01830322878491567</v>
+      </c>
+      <c r="E2">
+        <v>0.01496661135510543</v>
+      </c>
+      <c r="F2">
+        <v>-0.02553055435141643</v>
+      </c>
+      <c r="G2">
+        <v>0.002887003784722039</v>
+      </c>
+      <c r="H2">
+        <v>-0.04479385776131795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.074253650310094</v>
+        <v>0.08879174683244519</v>
       </c>
       <c r="C4">
-        <v>0.05149285756137733</v>
+        <v>0.0380392147836569</v>
       </c>
       <c r="D4">
-        <v>0.08424854766075811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06801506324567957</v>
+      </c>
+      <c r="E4">
+        <v>0.007577423139992664</v>
+      </c>
+      <c r="F4">
+        <v>-0.0374269558787954</v>
+      </c>
+      <c r="G4">
+        <v>-0.00623960620256755</v>
+      </c>
+      <c r="H4">
+        <v>0.04071627091568074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1130907012697711</v>
+        <v>0.1234986544604608</v>
       </c>
       <c r="C6">
-        <v>0.04949689687758675</v>
+        <v>0.03413513846993758</v>
       </c>
       <c r="D6">
-        <v>0.004202085647145162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01013548482571283</v>
+      </c>
+      <c r="E6">
+        <v>-0.02111736981382109</v>
+      </c>
+      <c r="F6">
+        <v>-0.05049892661330873</v>
+      </c>
+      <c r="G6">
+        <v>-0.03097187739707689</v>
+      </c>
+      <c r="H6">
+        <v>-0.1287868864722063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.053898883741602</v>
+        <v>0.06332491939591875</v>
       </c>
       <c r="C7">
-        <v>0.02566417163180662</v>
+        <v>0.01378760867827834</v>
       </c>
       <c r="D7">
-        <v>0.03917898797891801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0501964636061264</v>
+      </c>
+      <c r="E7">
+        <v>0.03375835183334801</v>
+      </c>
+      <c r="F7">
+        <v>-0.04391283688711962</v>
+      </c>
+      <c r="G7">
+        <v>0.03305888550864797</v>
+      </c>
+      <c r="H7">
+        <v>0.02300659758985768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.04080713222867839</v>
+        <v>0.04271444774239998</v>
       </c>
       <c r="C8">
-        <v>0.01339103756721618</v>
+        <v>0.009357412756300464</v>
       </c>
       <c r="D8">
-        <v>0.06090137897782318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.025037639135329</v>
+      </c>
+      <c r="E8">
+        <v>0.01876561355359783</v>
+      </c>
+      <c r="F8">
+        <v>-0.06537431507144185</v>
+      </c>
+      <c r="G8">
+        <v>-0.05446134674818688</v>
+      </c>
+      <c r="H8">
+        <v>-0.009641808288259172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0689880114042159</v>
+        <v>0.07982667167232652</v>
       </c>
       <c r="C9">
-        <v>0.03879729955449762</v>
+        <v>0.02561074062628227</v>
       </c>
       <c r="D9">
-        <v>0.07508118437208146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06258455539506606</v>
+      </c>
+      <c r="E9">
+        <v>0.02631007489817761</v>
+      </c>
+      <c r="F9">
+        <v>-0.02937930510084239</v>
+      </c>
+      <c r="G9">
+        <v>-0.01673482958505165</v>
+      </c>
+      <c r="H9">
+        <v>0.04760480210553859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03195777841382948</v>
+        <v>0.04092074731010247</v>
       </c>
       <c r="C10">
-        <v>0.02719545319706814</v>
+        <v>0.05208732108176416</v>
       </c>
       <c r="D10">
-        <v>-0.1718968326086521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1729193275180974</v>
+      </c>
+      <c r="E10">
+        <v>0.04071980419198015</v>
+      </c>
+      <c r="F10">
+        <v>-0.05546107476349449</v>
+      </c>
+      <c r="G10">
+        <v>0.02267368435785594</v>
+      </c>
+      <c r="H10">
+        <v>-0.03029699443861607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07197825728344967</v>
+        <v>0.07663007149489388</v>
       </c>
       <c r="C11">
-        <v>0.04124869225146149</v>
+        <v>0.02197917405907022</v>
       </c>
       <c r="D11">
-        <v>0.05788402917925935</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06405520927971184</v>
+      </c>
+      <c r="E11">
+        <v>-0.006582670668313076</v>
+      </c>
+      <c r="F11">
+        <v>-0.03303225732311126</v>
+      </c>
+      <c r="G11">
+        <v>-0.025247218238502</v>
+      </c>
+      <c r="H11">
+        <v>0.07968136163249388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06078416832239424</v>
+        <v>0.06918080053673192</v>
       </c>
       <c r="C12">
-        <v>0.05003231474065791</v>
+        <v>0.0338029589541748</v>
       </c>
       <c r="D12">
-        <v>0.04511310814010955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04833851711931043</v>
+      </c>
+      <c r="E12">
+        <v>0.01226822534867607</v>
+      </c>
+      <c r="F12">
+        <v>-0.02271697760490616</v>
+      </c>
+      <c r="G12">
+        <v>-0.01478734115341727</v>
+      </c>
+      <c r="H12">
+        <v>0.03779757664079256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06505215267035069</v>
+        <v>0.06720065239960243</v>
       </c>
       <c r="C13">
-        <v>0.034573109084348</v>
+        <v>0.02037581689618267</v>
       </c>
       <c r="D13">
-        <v>0.04761377359034318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04025445972222326</v>
+      </c>
+      <c r="E13">
+        <v>0.01088793444739595</v>
+      </c>
+      <c r="F13">
+        <v>-0.02325487414502386</v>
+      </c>
+      <c r="G13">
+        <v>-0.003410922004551401</v>
+      </c>
+      <c r="H13">
+        <v>0.06082941649151392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03342152173788392</v>
+        <v>0.0393974491488019</v>
       </c>
       <c r="C14">
-        <v>0.03129249476186125</v>
+        <v>0.02693940880386316</v>
       </c>
       <c r="D14">
-        <v>0.005379868371255593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01413540506183307</v>
+      </c>
+      <c r="E14">
+        <v>0.0316553880494424</v>
+      </c>
+      <c r="F14">
+        <v>-0.01633931150187203</v>
+      </c>
+      <c r="G14">
+        <v>-0.01947259115632542</v>
+      </c>
+      <c r="H14">
+        <v>0.05846854341416273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04016414818000046</v>
+        <v>0.03948612107433752</v>
       </c>
       <c r="C15">
-        <v>0.008246087353409393</v>
+        <v>0.001667501946611759</v>
       </c>
       <c r="D15">
-        <v>0.02238034317055732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008482894008918161</v>
+      </c>
+      <c r="E15">
+        <v>0.03661585634573207</v>
+      </c>
+      <c r="F15">
+        <v>-0.0006446449454732987</v>
+      </c>
+      <c r="G15">
+        <v>-0.02965426986866155</v>
+      </c>
+      <c r="H15">
+        <v>0.03189039725944537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0609805226418829</v>
+        <v>0.07129083555539638</v>
       </c>
       <c r="C16">
-        <v>0.03877889289266633</v>
+        <v>0.02425454429451435</v>
       </c>
       <c r="D16">
-        <v>0.0496628748533205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06182898904248599</v>
+      </c>
+      <c r="E16">
+        <v>0.005072129885883171</v>
+      </c>
+      <c r="F16">
+        <v>-0.03136950278303781</v>
+      </c>
+      <c r="G16">
+        <v>-0.0155230207378326</v>
+      </c>
+      <c r="H16">
+        <v>0.05599688646815094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06367190403986332</v>
+        <v>0.06264207671225276</v>
       </c>
       <c r="C20">
-        <v>0.02318464411092489</v>
+        <v>0.007156525936258317</v>
       </c>
       <c r="D20">
-        <v>0.04801656764676784</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03959368928381307</v>
+      </c>
+      <c r="E20">
+        <v>0.01717588289642226</v>
+      </c>
+      <c r="F20">
+        <v>-0.02740796511792094</v>
+      </c>
+      <c r="G20">
+        <v>-0.01947753755282152</v>
+      </c>
+      <c r="H20">
+        <v>0.04615232514980018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02681634114318313</v>
+        <v>0.02685864732168028</v>
       </c>
       <c r="C21">
-        <v>-0.001256443385178484</v>
+        <v>-0.008639435668982207</v>
       </c>
       <c r="D21">
-        <v>0.02120624746207878</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02309283214479232</v>
+      </c>
+      <c r="E21">
+        <v>0.04450709538715198</v>
+      </c>
+      <c r="F21">
+        <v>0.0097164841184064</v>
+      </c>
+      <c r="G21">
+        <v>-0.003800984938484075</v>
+      </c>
+      <c r="H21">
+        <v>-0.04529733652932265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07995047420529</v>
+        <v>0.06985569141029653</v>
       </c>
       <c r="C22">
-        <v>0.05961219727100971</v>
+        <v>0.03400264796659113</v>
       </c>
       <c r="D22">
-        <v>0.1455206830715522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.09990371016298662</v>
+      </c>
+      <c r="E22">
+        <v>0.6012124685072298</v>
+      </c>
+      <c r="F22">
+        <v>0.1073224506577017</v>
+      </c>
+      <c r="G22">
+        <v>0.1384684050555424</v>
+      </c>
+      <c r="H22">
+        <v>-0.1471758383175839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08091800984773699</v>
+        <v>0.07076519957655288</v>
       </c>
       <c r="C23">
-        <v>0.05832355796874963</v>
+        <v>0.03272738285462048</v>
       </c>
       <c r="D23">
-        <v>0.1468597488992672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1009503745011201</v>
+      </c>
+      <c r="E23">
+        <v>0.6034247207126567</v>
+      </c>
+      <c r="F23">
+        <v>0.1068327156570948</v>
+      </c>
+      <c r="G23">
+        <v>0.1340094979915323</v>
+      </c>
+      <c r="H23">
+        <v>-0.1420647187516741</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07551320126170497</v>
+        <v>0.08003830092530333</v>
       </c>
       <c r="C24">
-        <v>0.0496894688407773</v>
+        <v>0.02937433626918556</v>
       </c>
       <c r="D24">
-        <v>0.06069214518826188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06360623057897064</v>
+      </c>
+      <c r="E24">
+        <v>0.01349021988745646</v>
+      </c>
+      <c r="F24">
+        <v>-0.03884237180737643</v>
+      </c>
+      <c r="G24">
+        <v>-0.02565198976831728</v>
+      </c>
+      <c r="H24">
+        <v>0.04385984680342155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07464054388439051</v>
+        <v>0.07882037785366416</v>
       </c>
       <c r="C25">
-        <v>0.05244390769046683</v>
+        <v>0.03370212570752427</v>
       </c>
       <c r="D25">
-        <v>0.06546589925007602</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05246175159392578</v>
+      </c>
+      <c r="E25">
+        <v>0.02076182390207582</v>
+      </c>
+      <c r="F25">
+        <v>-0.03246491449021605</v>
+      </c>
+      <c r="G25">
+        <v>-0.0373041023887303</v>
+      </c>
+      <c r="H25">
+        <v>0.04937354705276591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04444283440853191</v>
+        <v>0.04607312874778443</v>
       </c>
       <c r="C26">
-        <v>0.008295724831798704</v>
+        <v>-2.123933696053942e-05</v>
       </c>
       <c r="D26">
-        <v>0.01431693659324601</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01861454619411269</v>
+      </c>
+      <c r="E26">
+        <v>0.04097876541259823</v>
+      </c>
+      <c r="F26">
+        <v>-0.03741306533231303</v>
+      </c>
+      <c r="G26">
+        <v>-0.003298795703229117</v>
+      </c>
+      <c r="H26">
+        <v>0.05493657357363456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05401737509460328</v>
+        <v>0.06938924733241944</v>
       </c>
       <c r="C28">
-        <v>0.07072994472921056</v>
+        <v>0.1063754193363784</v>
       </c>
       <c r="D28">
-        <v>-0.3023502745946756</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2990264475361056</v>
+      </c>
+      <c r="E28">
+        <v>0.03453529994532614</v>
+      </c>
+      <c r="F28">
+        <v>-0.06361496180745943</v>
+      </c>
+      <c r="G28">
+        <v>-0.02967666669908914</v>
+      </c>
+      <c r="H28">
+        <v>-0.03970535113473948</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04378341893199841</v>
+        <v>0.04786118039336307</v>
       </c>
       <c r="C29">
-        <v>0.02905424609054013</v>
+        <v>0.02373800451179066</v>
       </c>
       <c r="D29">
-        <v>0.008810070199751276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01048553349336569</v>
+      </c>
+      <c r="E29">
+        <v>0.06292474522262215</v>
+      </c>
+      <c r="F29">
+        <v>-0.01358262403853346</v>
+      </c>
+      <c r="G29">
+        <v>-0.006396589385123158</v>
+      </c>
+      <c r="H29">
+        <v>0.0776919352884831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1292986831901108</v>
+        <v>0.128309211372777</v>
       </c>
       <c r="C30">
-        <v>0.0851038339446078</v>
+        <v>0.05505356545637315</v>
       </c>
       <c r="D30">
-        <v>0.1067933995911487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07729040009522604</v>
+      </c>
+      <c r="E30">
+        <v>0.08035396497685578</v>
+      </c>
+      <c r="F30">
+        <v>-0.0204793539346082</v>
+      </c>
+      <c r="G30">
+        <v>-0.06890702266818895</v>
+      </c>
+      <c r="H30">
+        <v>-0.06509320415592866</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04608179115424241</v>
+        <v>0.04876102972523039</v>
       </c>
       <c r="C31">
-        <v>0.02173351506259443</v>
+        <v>0.01121655847196626</v>
       </c>
       <c r="D31">
-        <v>0.02558574852113006</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03178044427141694</v>
+      </c>
+      <c r="E31">
+        <v>0.02287941147729831</v>
+      </c>
+      <c r="F31">
+        <v>-0.004982175211104604</v>
+      </c>
+      <c r="G31">
+        <v>0.01329480544852597</v>
+      </c>
+      <c r="H31">
+        <v>0.06891260361620195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03766817562759005</v>
+        <v>0.03958336969018214</v>
       </c>
       <c r="C32">
-        <v>0.02276183368158674</v>
+        <v>0.02063427744144196</v>
       </c>
       <c r="D32">
-        <v>0.02253172694912009</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01053161181426837</v>
+      </c>
+      <c r="E32">
+        <v>0.05267608697707787</v>
+      </c>
+      <c r="F32">
+        <v>0.007211993308566473</v>
+      </c>
+      <c r="G32">
+        <v>-0.04686004268333055</v>
+      </c>
+      <c r="H32">
+        <v>0.0476492849506014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08574339030775767</v>
+        <v>0.09435273056430739</v>
       </c>
       <c r="C33">
-        <v>0.03817004814641393</v>
+        <v>0.02051137617585739</v>
       </c>
       <c r="D33">
-        <v>0.05445811909315703</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04785083967100754</v>
+      </c>
+      <c r="E33">
+        <v>0.01713754377889525</v>
+      </c>
+      <c r="F33">
+        <v>-0.01046580563177453</v>
+      </c>
+      <c r="G33">
+        <v>-0.006534998068614879</v>
+      </c>
+      <c r="H33">
+        <v>0.06244433335380473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0588897689628299</v>
+        <v>0.06366029059970993</v>
       </c>
       <c r="C34">
-        <v>0.024266687467324</v>
+        <v>0.008797702711053818</v>
       </c>
       <c r="D34">
-        <v>0.05206101220147941</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04970041204497098</v>
+      </c>
+      <c r="E34">
+        <v>0.008964115888978807</v>
+      </c>
+      <c r="F34">
+        <v>-0.0217655402559188</v>
+      </c>
+      <c r="G34">
+        <v>-0.01615491115031063</v>
+      </c>
+      <c r="H34">
+        <v>0.05903248823208456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03649326703558467</v>
+        <v>0.03839146077524645</v>
       </c>
       <c r="C35">
-        <v>0.007060762628434627</v>
+        <v>0.00137266428679389</v>
       </c>
       <c r="D35">
-        <v>0.01853730048384814</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01437553751855917</v>
+      </c>
+      <c r="E35">
+        <v>0.0214245470534978</v>
+      </c>
+      <c r="F35">
+        <v>0.01805301521491178</v>
+      </c>
+      <c r="G35">
+        <v>0.005271571310226158</v>
+      </c>
+      <c r="H35">
+        <v>0.02161137906278351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.0241553157529078</v>
+        <v>0.02881231033279614</v>
       </c>
       <c r="C36">
-        <v>0.01729505615898719</v>
+        <v>0.01363970815424026</v>
       </c>
       <c r="D36">
-        <v>0.02263003448454294</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0167207054352375</v>
+      </c>
+      <c r="E36">
+        <v>0.02988129357153888</v>
+      </c>
+      <c r="F36">
+        <v>-0.02521812444709049</v>
+      </c>
+      <c r="G36">
+        <v>0.001341271376271787</v>
+      </c>
+      <c r="H36">
+        <v>0.04660785397211883</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04269141117522864</v>
+        <v>0.04381698521428409</v>
       </c>
       <c r="C38">
-        <v>0.001124297704953079</v>
+        <v>-0.00609809602466082</v>
       </c>
       <c r="D38">
-        <v>0.02126556061809102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02091952405733455</v>
+      </c>
+      <c r="E38">
+        <v>0.05120156358557519</v>
+      </c>
+      <c r="F38">
+        <v>0.00877208973135493</v>
+      </c>
+      <c r="G38">
+        <v>-0.008487182267973691</v>
+      </c>
+      <c r="H38">
+        <v>0.03294926426094085</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09213061798131057</v>
+        <v>0.1002837547897868</v>
       </c>
       <c r="C39">
-        <v>0.06682980650528947</v>
+        <v>0.04552219254924167</v>
       </c>
       <c r="D39">
-        <v>0.05628248531379611</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06688567321235978</v>
+      </c>
+      <c r="E39">
+        <v>0.006314438720306003</v>
+      </c>
+      <c r="F39">
+        <v>-0.0001045930530789433</v>
+      </c>
+      <c r="G39">
+        <v>-0.04802067877683831</v>
+      </c>
+      <c r="H39">
+        <v>0.03173170557766778</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07896035986845612</v>
+        <v>0.06291031416461093</v>
       </c>
       <c r="C40">
-        <v>0.0332292925468077</v>
+        <v>0.005420230328961409</v>
       </c>
       <c r="D40">
-        <v>0.005890304930851228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03022651941527719</v>
+      </c>
+      <c r="E40">
+        <v>0.04073506838886174</v>
+      </c>
+      <c r="F40">
+        <v>0.04275106994549096</v>
+      </c>
+      <c r="G40">
+        <v>-0.03172420101858486</v>
+      </c>
+      <c r="H40">
+        <v>-0.08797855868105625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04316853901245483</v>
+        <v>0.04486476345800713</v>
       </c>
       <c r="C41">
-        <v>0.004824498733191894</v>
+        <v>-0.00527729259139416</v>
       </c>
       <c r="D41">
-        <v>0.03786906216116757</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03223636789180413</v>
+      </c>
+      <c r="E41">
+        <v>0.00240677584841487</v>
+      </c>
+      <c r="F41">
+        <v>0.01492055556085282</v>
+      </c>
+      <c r="G41">
+        <v>-0.0159052416626935</v>
+      </c>
+      <c r="H41">
+        <v>0.03120158861196953</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05255424475243595</v>
+        <v>0.05985421541473959</v>
       </c>
       <c r="C43">
-        <v>0.02519921692468107</v>
+        <v>0.0158364476981338</v>
       </c>
       <c r="D43">
-        <v>0.01599303839761439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02865262757875263</v>
+      </c>
+      <c r="E43">
+        <v>0.02244776501318566</v>
+      </c>
+      <c r="F43">
+        <v>-0.01338974769044894</v>
+      </c>
+      <c r="G43">
+        <v>0.01088187678704378</v>
+      </c>
+      <c r="H43">
+        <v>0.0700110623587144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09811260974720466</v>
+        <v>0.09539909249959656</v>
       </c>
       <c r="C44">
-        <v>0.08399459597295705</v>
+        <v>0.05552877689984027</v>
       </c>
       <c r="D44">
-        <v>0.07740294337786349</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06928610402501308</v>
+      </c>
+      <c r="E44">
+        <v>0.07707178894817154</v>
+      </c>
+      <c r="F44">
+        <v>-0.07949723355819464</v>
+      </c>
+      <c r="G44">
+        <v>-0.02323299179980779</v>
+      </c>
+      <c r="H44">
+        <v>0.03596457029979726</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02716588421141538</v>
+        <v>0.03521343930621872</v>
       </c>
       <c r="C46">
-        <v>0.01548770004294635</v>
+        <v>0.01066932500991842</v>
       </c>
       <c r="D46">
-        <v>0.03014726499738094</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03586447503548566</v>
+      </c>
+      <c r="E46">
+        <v>0.03327574934618705</v>
+      </c>
+      <c r="F46">
+        <v>-0.01369072695663379</v>
+      </c>
+      <c r="G46">
+        <v>-0.005538614505925812</v>
+      </c>
+      <c r="H46">
+        <v>0.02955796279383125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03449365013068389</v>
+        <v>0.04046784397454296</v>
       </c>
       <c r="C47">
-        <v>0.02253862598552063</v>
+        <v>0.01787064613580341</v>
       </c>
       <c r="D47">
-        <v>0.0004871818368547807</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005931871457803489</v>
+      </c>
+      <c r="E47">
+        <v>0.04302030008775842</v>
+      </c>
+      <c r="F47">
+        <v>0.01077845186767627</v>
+      </c>
+      <c r="G47">
+        <v>0.02697177958305753</v>
+      </c>
+      <c r="H47">
+        <v>0.02712655827670499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03484883626990579</v>
+        <v>0.03810823565131751</v>
       </c>
       <c r="C48">
-        <v>0.01740700203002033</v>
+        <v>0.009832459834578457</v>
       </c>
       <c r="D48">
-        <v>0.03336925496287259</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02065764552527217</v>
+      </c>
+      <c r="E48">
+        <v>0.04085884526745604</v>
+      </c>
+      <c r="F48">
+        <v>-0.009580198223419706</v>
+      </c>
+      <c r="G48">
+        <v>-0.02021891401750551</v>
+      </c>
+      <c r="H48">
+        <v>0.03470860432278799</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.164155019620623</v>
+        <v>0.1921292665201828</v>
       </c>
       <c r="C49">
-        <v>0.04809918058498236</v>
+        <v>0.02715893133920693</v>
       </c>
       <c r="D49">
-        <v>0.0004111682037501488</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03487742869775115</v>
+      </c>
+      <c r="E49">
+        <v>-0.1751942763208331</v>
+      </c>
+      <c r="F49">
+        <v>-0.05677012188408522</v>
+      </c>
+      <c r="G49">
+        <v>0.09780599621192476</v>
+      </c>
+      <c r="H49">
+        <v>-0.2218253083302707</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04109746580263877</v>
+        <v>0.04534877801189717</v>
       </c>
       <c r="C50">
-        <v>0.01864768764900134</v>
+        <v>0.01025713048988517</v>
       </c>
       <c r="D50">
-        <v>0.04576630708184234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03744263488610283</v>
+      </c>
+      <c r="E50">
+        <v>0.04011978457437127</v>
+      </c>
+      <c r="F50">
+        <v>-0.006272686835399314</v>
+      </c>
+      <c r="G50">
+        <v>0.00753529776132957</v>
+      </c>
+      <c r="H50">
+        <v>0.0690575469300652</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02865700830109624</v>
+        <v>0.03307299865246578</v>
       </c>
       <c r="C51">
-        <v>0.01027932322645125</v>
+        <v>0.005868272680984738</v>
       </c>
       <c r="D51">
-        <v>0.004035865391385997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.00488780003696336</v>
+      </c>
+      <c r="E51">
+        <v>0.006641537246568013</v>
+      </c>
+      <c r="F51">
+        <v>-0.01209419842113085</v>
+      </c>
+      <c r="G51">
+        <v>0.004867712669017669</v>
+      </c>
+      <c r="H51">
+        <v>-0.005078303238510588</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1575182442456786</v>
+        <v>0.1619684845340126</v>
       </c>
       <c r="C53">
-        <v>0.07082594511806914</v>
+        <v>0.04495832668590648</v>
       </c>
       <c r="D53">
-        <v>0.001015442724597366</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02407077023796345</v>
+      </c>
+      <c r="E53">
+        <v>-0.03415129193025967</v>
+      </c>
+      <c r="F53">
+        <v>0.001468509868391005</v>
+      </c>
+      <c r="G53">
+        <v>-0.002033584254051282</v>
+      </c>
+      <c r="H53">
+        <v>0.1851861931390474</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05673963421270939</v>
+        <v>0.05792173795066637</v>
       </c>
       <c r="C54">
-        <v>0.02104935501183617</v>
+        <v>0.01208928569805581</v>
       </c>
       <c r="D54">
-        <v>0.01743902705820212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01417660416439686</v>
+      </c>
+      <c r="E54">
+        <v>0.05501539496641761</v>
+      </c>
+      <c r="F54">
+        <v>-0.01077061423516927</v>
+      </c>
+      <c r="G54">
+        <v>-0.04391644760968175</v>
+      </c>
+      <c r="H54">
+        <v>0.0467146178976973</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1006531595820668</v>
+        <v>0.1040717863067929</v>
       </c>
       <c r="C55">
-        <v>0.04836006233430172</v>
+        <v>0.03063384178973796</v>
       </c>
       <c r="D55">
-        <v>0.02301095831876139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02887543480517053</v>
+      </c>
+      <c r="E55">
+        <v>0.006252171322125087</v>
+      </c>
+      <c r="F55">
+        <v>-0.008427723557554837</v>
+      </c>
+      <c r="G55">
+        <v>-0.01012799968118457</v>
+      </c>
+      <c r="H55">
+        <v>0.1480153104693097</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1525253118837114</v>
+        <v>0.1597358370003965</v>
       </c>
       <c r="C56">
-        <v>0.08093594239839207</v>
+        <v>0.05361141717032672</v>
       </c>
       <c r="D56">
-        <v>0.0117307705771151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03583113404981585</v>
+      </c>
+      <c r="E56">
+        <v>-0.0201915392130812</v>
+      </c>
+      <c r="F56">
+        <v>-0.01891014105923303</v>
+      </c>
+      <c r="G56">
+        <v>-8.14211239520023e-05</v>
+      </c>
+      <c r="H56">
+        <v>0.1910814208330576</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1315561359229016</v>
+        <v>0.09916379303777331</v>
       </c>
       <c r="C58">
-        <v>-0.00663003153448124</v>
+        <v>-0.04924278905384537</v>
       </c>
       <c r="D58">
-        <v>0.02390719429860216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0328951228691185</v>
+      </c>
+      <c r="E58">
+        <v>0.1445171560317283</v>
+      </c>
+      <c r="F58">
+        <v>-0.004369070609368937</v>
+      </c>
+      <c r="G58">
+        <v>0.08094723444171105</v>
+      </c>
+      <c r="H58">
+        <v>-0.1969634268502034</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1279477925747789</v>
+        <v>0.1458343781529012</v>
       </c>
       <c r="C59">
-        <v>0.07809533672644595</v>
+        <v>0.1116477209283871</v>
       </c>
       <c r="D59">
-        <v>-0.3816219193948214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3557312490893862</v>
+      </c>
+      <c r="E59">
+        <v>0.03406257038561473</v>
+      </c>
+      <c r="F59">
+        <v>-0.001893627699632201</v>
+      </c>
+      <c r="G59">
+        <v>0.01866816544499517</v>
+      </c>
+      <c r="H59">
+        <v>0.005596165211420966</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2099065276665176</v>
+        <v>0.2388801422040786</v>
       </c>
       <c r="C60">
-        <v>0.08892350956571787</v>
+        <v>0.05945495004802448</v>
       </c>
       <c r="D60">
-        <v>0.02206424354536775</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04570297767812926</v>
+      </c>
+      <c r="E60">
+        <v>-0.1156660139077052</v>
+      </c>
+      <c r="F60">
+        <v>-0.05783134207537242</v>
+      </c>
+      <c r="G60">
+        <v>0.01069503264130467</v>
+      </c>
+      <c r="H60">
+        <v>-0.1556455174938219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08254929973319669</v>
+        <v>0.08804357499880024</v>
       </c>
       <c r="C61">
-        <v>0.04691520018973465</v>
+        <v>0.03058096729208365</v>
       </c>
       <c r="D61">
-        <v>0.03523058758923788</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04251193770842888</v>
+      </c>
+      <c r="E61">
+        <v>0.006267092583303741</v>
+      </c>
+      <c r="F61">
+        <v>0.0003725187504948847</v>
+      </c>
+      <c r="G61">
+        <v>-0.01324107337277416</v>
+      </c>
+      <c r="H61">
+        <v>0.0665325685780771</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1316763073866264</v>
+        <v>0.1366966715248091</v>
       </c>
       <c r="C62">
-        <v>0.05658409531146445</v>
+        <v>0.03004276633936745</v>
       </c>
       <c r="D62">
-        <v>0.02022038777269709</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0448662772431779</v>
+      </c>
+      <c r="E62">
+        <v>-0.05442956118240082</v>
+      </c>
+      <c r="F62">
+        <v>0.009988283333853522</v>
+      </c>
+      <c r="G62">
+        <v>-0.04252025841643031</v>
+      </c>
+      <c r="H62">
+        <v>0.1804489437246869</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05221499833558238</v>
+        <v>0.05222858273742776</v>
       </c>
       <c r="C63">
-        <v>0.02276993799984577</v>
+        <v>0.013640564650863</v>
       </c>
       <c r="D63">
-        <v>0.02590372107801282</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0203243250384431</v>
+      </c>
+      <c r="E63">
+        <v>0.0475838936074701</v>
+      </c>
+      <c r="F63">
+        <v>0.002715625402554078</v>
+      </c>
+      <c r="G63">
+        <v>-0.02442577251155391</v>
+      </c>
+      <c r="H63">
+        <v>0.03813224838966942</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1052523123267214</v>
+        <v>0.1097839975624024</v>
       </c>
       <c r="C64">
-        <v>0.02768632558281518</v>
+        <v>0.01324401452881314</v>
       </c>
       <c r="D64">
-        <v>0.0350768206568498</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02885181097409861</v>
+      </c>
+      <c r="E64">
+        <v>0.03540071337042777</v>
+      </c>
+      <c r="F64">
+        <v>-0.04447857998678612</v>
+      </c>
+      <c r="G64">
+        <v>-0.0609818175759077</v>
+      </c>
+      <c r="H64">
+        <v>0.03392789177339919</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1310626939942881</v>
+        <v>0.1315548751985475</v>
       </c>
       <c r="C65">
-        <v>0.05764382161287124</v>
+        <v>0.03972678658686819</v>
       </c>
       <c r="D65">
-        <v>0.003049055633412085</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.009168871212403939</v>
+      </c>
+      <c r="E65">
+        <v>-0.002575235896032321</v>
+      </c>
+      <c r="F65">
+        <v>-0.0564004372272206</v>
+      </c>
+      <c r="G65">
+        <v>-0.05265681392076511</v>
+      </c>
+      <c r="H65">
+        <v>-0.1680804894350031</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.149318203101484</v>
+        <v>0.1520883452489677</v>
       </c>
       <c r="C66">
-        <v>0.06428011548296092</v>
+        <v>0.03187126701684295</v>
       </c>
       <c r="D66">
-        <v>0.1000517482247762</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1001023472469877</v>
+      </c>
+      <c r="E66">
+        <v>-0.02178788326656764</v>
+      </c>
+      <c r="F66">
+        <v>-0.002954237603200932</v>
+      </c>
+      <c r="G66">
+        <v>-0.06344603711267166</v>
+      </c>
+      <c r="H66">
+        <v>0.09973127307229143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07555542722316562</v>
+        <v>0.08428251865569317</v>
       </c>
       <c r="C67">
-        <v>0.008067367938265294</v>
+        <v>-0.002500399487419915</v>
       </c>
       <c r="D67">
-        <v>0.02492925757775492</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03255565470992681</v>
+      </c>
+      <c r="E67">
+        <v>0.01629805013638454</v>
+      </c>
+      <c r="F67">
+        <v>-0.01307776363922474</v>
+      </c>
+      <c r="G67">
+        <v>0.00629310211361059</v>
+      </c>
+      <c r="H67">
+        <v>0.04227598502440376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0612812937112657</v>
+        <v>0.06424741249174208</v>
       </c>
       <c r="C68">
-        <v>0.05055699626279227</v>
+        <v>0.08010297120524425</v>
       </c>
       <c r="D68">
-        <v>-0.2554939543041288</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2647987910230017</v>
+      </c>
+      <c r="E68">
+        <v>0.04119765304169553</v>
+      </c>
+      <c r="F68">
+        <v>-0.01253061603499213</v>
+      </c>
+      <c r="G68">
+        <v>0.01010968033430532</v>
+      </c>
+      <c r="H68">
+        <v>0.01181398082062036</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0526644600208666</v>
+        <v>0.05220079473029841</v>
       </c>
       <c r="C69">
-        <v>0.01452949691375775</v>
+        <v>0.002847401958552996</v>
       </c>
       <c r="D69">
-        <v>0.02529604907043529</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01967542838202638</v>
+      </c>
+      <c r="E69">
+        <v>0.0258531953780839</v>
+      </c>
+      <c r="F69">
+        <v>0.0144115327108832</v>
+      </c>
+      <c r="G69">
+        <v>0.003350414357035865</v>
+      </c>
+      <c r="H69">
+        <v>0.0501442812420913</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.002708489494982605</v>
+        <v>0.0268093459307927</v>
       </c>
       <c r="C70">
-        <v>-0.008451267498900312</v>
+        <v>-0.003181449388728374</v>
       </c>
       <c r="D70">
-        <v>-0.01003264025007591</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.006769324236192078</v>
+      </c>
+      <c r="E70">
+        <v>-0.02245474492449017</v>
+      </c>
+      <c r="F70">
+        <v>-0.009042671985622579</v>
+      </c>
+      <c r="G70">
+        <v>0.02374943460741885</v>
+      </c>
+      <c r="H70">
+        <v>-0.009744380360305558</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05916872367726457</v>
+        <v>0.06812950946986192</v>
       </c>
       <c r="C71">
-        <v>0.05005150880898977</v>
+        <v>0.08780019734766854</v>
       </c>
       <c r="D71">
-        <v>-0.290686125611796</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2925726294476912</v>
+      </c>
+      <c r="E71">
+        <v>0.03822916267445114</v>
+      </c>
+      <c r="F71">
+        <v>-0.04325560109868112</v>
+      </c>
+      <c r="G71">
+        <v>0.004804377913506293</v>
+      </c>
+      <c r="H71">
+        <v>0.01273513021563623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.142559061894283</v>
+        <v>0.14454913129706</v>
       </c>
       <c r="C72">
-        <v>0.05640479566753997</v>
+        <v>0.03106348269219711</v>
       </c>
       <c r="D72">
-        <v>0.0001856095374718317</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001654993529503028</v>
+      </c>
+      <c r="E72">
+        <v>-0.06595080828040738</v>
+      </c>
+      <c r="F72">
+        <v>0.1593952359005384</v>
+      </c>
+      <c r="G72">
+        <v>-0.1119188207396631</v>
+      </c>
+      <c r="H72">
+        <v>-0.02468939075643554</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2877779863711915</v>
+        <v>0.2878793097237791</v>
       </c>
       <c r="C73">
-        <v>0.08810235747535543</v>
+        <v>0.02289151689822086</v>
       </c>
       <c r="D73">
-        <v>0.04548959800293273</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1011860975726808</v>
+      </c>
+      <c r="E73">
+        <v>-0.2319954036202089</v>
+      </c>
+      <c r="F73">
+        <v>-0.07987997920842498</v>
+      </c>
+      <c r="G73">
+        <v>0.2302355163104357</v>
+      </c>
+      <c r="H73">
+        <v>-0.4740527936551512</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08330809487256544</v>
+        <v>0.09153036979850342</v>
       </c>
       <c r="C74">
-        <v>0.07417928074572042</v>
+        <v>0.05562175874255956</v>
       </c>
       <c r="D74">
-        <v>0.01009904813951864</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03834796081564506</v>
+      </c>
+      <c r="E74">
+        <v>-0.006810902350675081</v>
+      </c>
+      <c r="F74">
+        <v>0.0066299537065421</v>
+      </c>
+      <c r="G74">
+        <v>0.03083673668128811</v>
+      </c>
+      <c r="H74">
+        <v>0.1246925277098718</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1000075321625938</v>
+        <v>0.1034273969544836</v>
       </c>
       <c r="C75">
-        <v>0.0470812446374763</v>
+        <v>0.02320056548393337</v>
       </c>
       <c r="D75">
-        <v>0.01225740373248722</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02440108162534121</v>
+      </c>
+      <c r="E75">
+        <v>-0.004630466406540958</v>
+      </c>
+      <c r="F75">
+        <v>-0.001985778767208336</v>
+      </c>
+      <c r="G75">
+        <v>0.00841185106403808</v>
+      </c>
+      <c r="H75">
+        <v>0.1085336616627399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1341833213371502</v>
+        <v>0.1434628315331436</v>
       </c>
       <c r="C76">
-        <v>0.07602941540200432</v>
+        <v>0.05201985997753969</v>
       </c>
       <c r="D76">
-        <v>0.03337159492914418</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04994240746019869</v>
+      </c>
+      <c r="E76">
+        <v>0.01415556053751805</v>
+      </c>
+      <c r="F76">
+        <v>-0.03189986935878805</v>
+      </c>
+      <c r="G76">
+        <v>-0.008060235280586105</v>
+      </c>
+      <c r="H76">
+        <v>0.2120344433289654</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1169527446966007</v>
+        <v>0.1037423469767045</v>
       </c>
       <c r="C77">
-        <v>0.007403694330734458</v>
+        <v>-0.02166290624853948</v>
       </c>
       <c r="D77">
-        <v>0.0846332836546812</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.03607025207018865</v>
+      </c>
+      <c r="E77">
+        <v>0.0551356594174418</v>
+      </c>
+      <c r="F77">
+        <v>-0.1051645248699139</v>
+      </c>
+      <c r="G77">
+        <v>-0.8444516917903436</v>
+      </c>
+      <c r="H77">
+        <v>-0.2490199399900075</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1076316367307006</v>
+        <v>0.1500964710845298</v>
       </c>
       <c r="C78">
-        <v>0.03331927596411556</v>
+        <v>0.02906281111486408</v>
       </c>
       <c r="D78">
-        <v>0.09208313805470149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07876542411958791</v>
+      </c>
+      <c r="E78">
+        <v>0.04827979424358178</v>
+      </c>
+      <c r="F78">
+        <v>-0.06928376391568032</v>
+      </c>
+      <c r="G78">
+        <v>-0.0711165388651841</v>
+      </c>
+      <c r="H78">
+        <v>-0.05218009962962138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.149141389241074</v>
+        <v>0.149258142104882</v>
       </c>
       <c r="C79">
-        <v>0.06686774939174832</v>
+        <v>0.03524381712361972</v>
       </c>
       <c r="D79">
-        <v>0.02260505954063471</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03697553636820736</v>
+      </c>
+      <c r="E79">
+        <v>-0.02000005553229784</v>
+      </c>
+      <c r="F79">
+        <v>-0.01260653755129479</v>
+      </c>
+      <c r="G79">
+        <v>0.003449722595028557</v>
+      </c>
+      <c r="H79">
+        <v>0.1620387459839449</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04108897457902835</v>
+        <v>0.04173245746086156</v>
       </c>
       <c r="C80">
-        <v>0.01908382012557388</v>
+        <v>0.0120169724311018</v>
       </c>
       <c r="D80">
-        <v>0.03085978370599579</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01660464371305789</v>
+      </c>
+      <c r="E80">
+        <v>-0.03156978439584279</v>
+      </c>
+      <c r="F80">
+        <v>-0.003544704501166065</v>
+      </c>
+      <c r="G80">
+        <v>0.02248570845686497</v>
+      </c>
+      <c r="H80">
+        <v>0.04040298471123433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1208018746406348</v>
+        <v>0.1217309738934867</v>
       </c>
       <c r="C81">
-        <v>0.05562183367542363</v>
+        <v>0.03080532943863246</v>
       </c>
       <c r="D81">
-        <v>0.03248830210770069</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03049163677455984</v>
+      </c>
+      <c r="E81">
+        <v>0.003550872281759913</v>
+      </c>
+      <c r="F81">
+        <v>-0.003247912733047646</v>
+      </c>
+      <c r="G81">
+        <v>0.02590281656591497</v>
+      </c>
+      <c r="H81">
+        <v>0.1588920612734951</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1324944479531524</v>
+        <v>0.1315877172997488</v>
       </c>
       <c r="C82">
-        <v>0.06919526396143937</v>
+        <v>0.04409850061329571</v>
       </c>
       <c r="D82">
-        <v>0.01136537949291892</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03411633387516896</v>
+      </c>
+      <c r="E82">
+        <v>-0.02498188178796741</v>
+      </c>
+      <c r="F82">
+        <v>-0.04016831488992399</v>
+      </c>
+      <c r="G82">
+        <v>0.01891516560799326</v>
+      </c>
+      <c r="H82">
+        <v>0.2275519160269145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06951455823013446</v>
+        <v>0.08335931240944386</v>
       </c>
       <c r="C83">
-        <v>-0.02725528935511737</v>
+        <v>-0.03799359165612699</v>
       </c>
       <c r="D83">
-        <v>0.01410445408244193</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02087642617813175</v>
+      </c>
+      <c r="E83">
+        <v>0.0218005766372779</v>
+      </c>
+      <c r="F83">
+        <v>-0.04590158152788104</v>
+      </c>
+      <c r="G83">
+        <v>0.06736675819359117</v>
+      </c>
+      <c r="H83">
+        <v>-0.0227712735474891</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02958944460481938</v>
+        <v>0.03838895505413832</v>
       </c>
       <c r="C84">
-        <v>0.02794222126102439</v>
+        <v>0.02200072032155644</v>
       </c>
       <c r="D84">
-        <v>0.03297737354206431</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03196865318667712</v>
+      </c>
+      <c r="E84">
+        <v>0.03130855074425284</v>
+      </c>
+      <c r="F84">
+        <v>0.0463678334547012</v>
+      </c>
+      <c r="G84">
+        <v>0.05700086342826396</v>
+      </c>
+      <c r="H84">
+        <v>0.01417877328333702</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1168820320194355</v>
+        <v>0.1202180294945326</v>
       </c>
       <c r="C85">
-        <v>0.04039907540658018</v>
+        <v>0.01742417480095005</v>
       </c>
       <c r="D85">
-        <v>0.04540567131199408</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03919924438235007</v>
+      </c>
+      <c r="E85">
+        <v>0.01298065513466203</v>
+      </c>
+      <c r="F85">
+        <v>-0.02779886672707454</v>
+      </c>
+      <c r="G85">
+        <v>0.008234568887883046</v>
+      </c>
+      <c r="H85">
+        <v>0.1507913843996616</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05301831889247177</v>
+        <v>0.05614712193489066</v>
       </c>
       <c r="C86">
-        <v>0.02084297838123284</v>
+        <v>0.008242214658604991</v>
       </c>
       <c r="D86">
-        <v>0.06107074659626635</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03509924611257541</v>
+      </c>
+      <c r="E86">
+        <v>0.04169081422920887</v>
+      </c>
+      <c r="F86">
+        <v>-0.0362808109325447</v>
+      </c>
+      <c r="G86">
+        <v>0.03350906790692183</v>
+      </c>
+      <c r="H86">
+        <v>-0.0178032597732217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1223612683393026</v>
+        <v>0.1250651909529482</v>
       </c>
       <c r="C87">
-        <v>0.0645978531853604</v>
+        <v>0.03157349409658353</v>
       </c>
       <c r="D87">
-        <v>0.07057285216947166</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06641382814708013</v>
+      </c>
+      <c r="E87">
+        <v>0.02140705619246789</v>
+      </c>
+      <c r="F87">
+        <v>-0.01672264804730375</v>
+      </c>
+      <c r="G87">
+        <v>-0.1295145949205504</v>
+      </c>
+      <c r="H87">
+        <v>-0.06506560294069887</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05331915077820445</v>
+        <v>0.06189981891342081</v>
       </c>
       <c r="C88">
-        <v>0.02774737978796239</v>
+        <v>0.01774353018243612</v>
       </c>
       <c r="D88">
-        <v>0.02650168673661291</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03852775492911555</v>
+      </c>
+      <c r="E88">
+        <v>0.01433906155121379</v>
+      </c>
+      <c r="F88">
+        <v>-0.01238391019475575</v>
+      </c>
+      <c r="G88">
+        <v>-0.01542311390682055</v>
+      </c>
+      <c r="H88">
+        <v>0.04770454274913439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09181967323438714</v>
+        <v>0.1054572990679876</v>
       </c>
       <c r="C89">
-        <v>0.07155381448352356</v>
+        <v>0.1109889830607646</v>
       </c>
       <c r="D89">
-        <v>-0.333866212670504</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3405299967740242</v>
+      </c>
+      <c r="E89">
+        <v>0.07414930536489536</v>
+      </c>
+      <c r="F89">
+        <v>-0.06742716659260348</v>
+      </c>
+      <c r="G89">
+        <v>0.0293265202583168</v>
+      </c>
+      <c r="H89">
+        <v>0.01179208821876</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07439463334684383</v>
+        <v>0.08491222567412667</v>
       </c>
       <c r="C90">
-        <v>0.06104762338264578</v>
+        <v>0.093571602134691</v>
       </c>
       <c r="D90">
-        <v>-0.2825188441361439</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2824471542356907</v>
+      </c>
+      <c r="E90">
+        <v>0.05296124716667519</v>
+      </c>
+      <c r="F90">
+        <v>-0.03414657224365186</v>
+      </c>
+      <c r="G90">
+        <v>-0.02182019044421056</v>
+      </c>
+      <c r="H90">
+        <v>-0.01059831219495604</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08890287552750147</v>
+        <v>0.09129041910092577</v>
       </c>
       <c r="C91">
-        <v>0.04903326169962145</v>
+        <v>0.02809976722729576</v>
       </c>
       <c r="D91">
-        <v>0.02206804879014818</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03171888096845776</v>
+      </c>
+      <c r="E91">
+        <v>0.003620114122963605</v>
+      </c>
+      <c r="F91">
+        <v>0.002262950934892903</v>
+      </c>
+      <c r="G91">
+        <v>0.02637781208464016</v>
+      </c>
+      <c r="H91">
+        <v>0.09150509599385226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07722849996349611</v>
+        <v>0.08761141303311649</v>
       </c>
       <c r="C92">
-        <v>0.07484124350118558</v>
+        <v>0.1144154892402454</v>
       </c>
       <c r="D92">
-        <v>-0.3408678871489541</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3377700201374517</v>
+      </c>
+      <c r="E92">
+        <v>0.04573601092950908</v>
+      </c>
+      <c r="F92">
+        <v>-0.03494088236601198</v>
+      </c>
+      <c r="G92">
+        <v>-0.00813215202628084</v>
+      </c>
+      <c r="H92">
+        <v>0.01312223103727515</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06754220891364356</v>
+        <v>0.08145627925601315</v>
       </c>
       <c r="C93">
-        <v>0.06546900828634448</v>
+        <v>0.1042469373536888</v>
       </c>
       <c r="D93">
-        <v>-0.297885006464131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2976737348208988</v>
+      </c>
+      <c r="E93">
+        <v>0.02873928165470052</v>
+      </c>
+      <c r="F93">
+        <v>-0.03024884424421855</v>
+      </c>
+      <c r="G93">
+        <v>-0.009109425671210194</v>
+      </c>
+      <c r="H93">
+        <v>-0.00563479120413766</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1346908580122312</v>
+        <v>0.1292803476402677</v>
       </c>
       <c r="C94">
-        <v>0.04221147730200073</v>
+        <v>0.01033734982621453</v>
       </c>
       <c r="D94">
-        <v>0.04082767411946408</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04945511693563161</v>
+      </c>
+      <c r="E94">
+        <v>-0.02079545674924718</v>
+      </c>
+      <c r="F94">
+        <v>-0.01361184250112782</v>
+      </c>
+      <c r="G94">
+        <v>0.0465459977306916</v>
+      </c>
+      <c r="H94">
+        <v>0.1167572301091886</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1206638381926383</v>
+        <v>0.1286938387184164</v>
       </c>
       <c r="C95">
-        <v>0.01913103569874196</v>
+        <v>-0.005789184699347832</v>
       </c>
       <c r="D95">
-        <v>0.05286835866956383</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06177534675566855</v>
+      </c>
+      <c r="E95">
+        <v>0.006863393315386056</v>
+      </c>
+      <c r="F95">
+        <v>-0.0555219352426522</v>
+      </c>
+      <c r="G95">
+        <v>-0.02989308594617643</v>
+      </c>
+      <c r="H95">
+        <v>-0.03502754745942034</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2165978054935766</v>
+        <v>0.1980209956982219</v>
       </c>
       <c r="C97">
-        <v>0.0406049376564272</v>
+        <v>-0.001703040937781498</v>
       </c>
       <c r="D97">
-        <v>-0.09565600599284792</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06969126578121686</v>
+      </c>
+      <c r="E97">
+        <v>-0.1264704584524395</v>
+      </c>
+      <c r="F97">
+        <v>0.9212060357990242</v>
+      </c>
+      <c r="G97">
+        <v>-0.08827557388453788</v>
+      </c>
+      <c r="H97">
+        <v>-0.02988086748430958</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2455515684202134</v>
+        <v>0.2748005223981236</v>
       </c>
       <c r="C98">
-        <v>0.0541718003629067</v>
+        <v>0.01714480093312725</v>
       </c>
       <c r="D98">
-        <v>0.02531316022097409</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05160407145814629</v>
+      </c>
+      <c r="E98">
+        <v>-0.2000830597103337</v>
+      </c>
+      <c r="F98">
+        <v>-0.05604332433476163</v>
+      </c>
+      <c r="G98">
+        <v>0.2834164048779583</v>
+      </c>
+      <c r="H98">
+        <v>-0.1644053003281324</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.3916505491618831</v>
+        <v>0.2600096038077263</v>
       </c>
       <c r="C99">
-        <v>-0.9016684380845895</v>
+        <v>-0.9247031571298991</v>
       </c>
       <c r="D99">
-        <v>-0.0622964564324605</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.2077452941094181</v>
+      </c>
+      <c r="E99">
+        <v>0.07073685041744036</v>
+      </c>
+      <c r="F99">
+        <v>-0.05825565514439798</v>
+      </c>
+      <c r="G99">
+        <v>0.01055245340362981</v>
+      </c>
+      <c r="H99">
+        <v>0.07276144879325507</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04357979161134972</v>
+        <v>0.04777017837750695</v>
       </c>
       <c r="C101">
-        <v>0.02917778865890005</v>
+        <v>0.02396943363629627</v>
       </c>
       <c r="D101">
-        <v>0.009641166319759229</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01077891474322872</v>
+      </c>
+      <c r="E101">
+        <v>0.06284344332957956</v>
+      </c>
+      <c r="F101">
+        <v>-0.01313406658982667</v>
+      </c>
+      <c r="G101">
+        <v>-0.005576076179699714</v>
+      </c>
+      <c r="H101">
+        <v>0.07670554609110787</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
